--- a/sputnik/personal/uch/uch50.xlsx
+++ b/sputnik/personal/uch/uch50.xlsx
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -165,7 +165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,10 +176,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +491,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/sputnik/personal/uch/uch50.xlsx
+++ b/sputnik/personal/uch/uch50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -181,6 +184,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,7 +495,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,9 +571,15 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11350</v>
+      </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch50.xlsx
+++ b/sputnik/personal/uch/uch50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,9 +586,15 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12103.64</v>
+      </c>
       <c r="D8" s="10"/>
     </row>
   </sheetData>
